--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503417.6933347735</v>
+        <v>500522.5087396137</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11747574.16448554</v>
+        <v>11747574.16448553</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.27738790031055</v>
+        <v>12.27738790031057</v>
       </c>
       <c r="G2" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12.27738790031057</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="I3" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>12.27738790031057</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.50085122695954</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="G5" t="n">
-        <v>35.67314976070595</v>
+        <v>35.67314976070759</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.50085122695954</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.50085122695954</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>35.67314976070595</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.50085122695954</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="S6" t="n">
-        <v>40.50085122695954</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>40.50085122695954</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>35.67314976070759</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="D7" t="n">
-        <v>40.50085122695954</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="F7" t="n">
-        <v>6.329814049207901</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>35.67314976070759</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>40.50085122695954</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.34333571149804</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>40.50085122695954</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.25317302789425</v>
+        <v>99.43066953463303</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>86.17749650673879</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>144.6751566710423</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>95.35828607663996</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E9" t="n">
         <v>144.6751566710423</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>32.07159191921401</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>127.4298779958539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.6751566710423</v>
+        <v>106.7643651781322</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>144.6751566710423</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.36014035361794</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>118.2520388405333</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>144.6751566710423</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.0598481242036</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>361.3693442271789</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.4555490020543</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>80.50796942908582</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>259.6394192496388</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>220.3051751225967</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740602</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512079</v>
+        <v>87.89778431512083</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853815</v>
+        <v>12.76005920853829</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762148</v>
+        <v>124.8757279762149</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>57.37026428988187</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396106</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
@@ -1822,13 +1822,13 @@
         <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>134.3337590703299</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645704</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2068,7 +2068,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947572</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116144</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.86620090218895</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2299,7 +2299,7 @@
         <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843768</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.221777829723</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
         <v>135.6366187464139</v>
@@ -2482,7 +2482,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943543</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295198</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545726</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659942</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453032</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221598</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612654</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716143</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843773</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2965,10 +2965,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442994</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139452959</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295162</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943543</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139452996</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221562</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998841</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295167</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.124505344303</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453001</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295159</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.823760294355</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452993</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230222008</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.67591925719414</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="C2" t="n">
-        <v>41.67591925719414</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="D2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.5962168054394</v>
       </c>
       <c r="E2" t="n">
-        <v>41.67591925719414</v>
+        <v>27.5962168054394</v>
       </c>
       <c r="F2" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="G2" t="n">
-        <v>15.19481488593376</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="H2" t="n">
-        <v>15.19481488593376</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="I2" t="n">
-        <v>1.115112434178978</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="J2" t="n">
-        <v>1.115112434178978</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="K2" t="n">
-        <v>1.115112434178978</v>
+        <v>14.91462880714385</v>
       </c>
       <c r="L2" t="n">
-        <v>5.317632192006817</v>
+        <v>14.91462880714385</v>
       </c>
       <c r="M2" t="n">
-        <v>14.35707259005435</v>
+        <v>28.15658896301923</v>
       </c>
       <c r="N2" t="n">
-        <v>28.15658896301921</v>
+        <v>41.95610533598411</v>
       </c>
       <c r="O2" t="n">
-        <v>41.95610533598406</v>
+        <v>41.95610533598411</v>
       </c>
       <c r="P2" t="n">
-        <v>55.75562170894892</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="Q2" t="n">
-        <v>55.75562170894892</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="R2" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="S2" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="T2" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="U2" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="V2" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="W2" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="X2" t="n">
-        <v>41.67591925719414</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.67591925719414</v>
+        <v>41.67591925719419</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="C3" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="D3" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="E3" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="F3" t="n">
-        <v>15.19481488593376</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="G3" t="n">
-        <v>15.19481488593376</v>
+        <v>29.27451733768856</v>
       </c>
       <c r="H3" t="n">
-        <v>15.19481488593376</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="I3" t="n">
-        <v>1.115112434178978</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="J3" t="n">
-        <v>1.115112434178978</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="K3" t="n">
-        <v>1.115112434178978</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="L3" t="n">
-        <v>14.91462880714383</v>
+        <v>9.041706337495777</v>
       </c>
       <c r="M3" t="n">
         <v>22.84122271046065</v>
       </c>
       <c r="N3" t="n">
-        <v>36.6407390834255</v>
+        <v>36.64073908342552</v>
       </c>
       <c r="O3" t="n">
-        <v>50.44025545639036</v>
+        <v>50.4402554563904</v>
       </c>
       <c r="P3" t="n">
-        <v>55.75562170894892</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.75562170894892</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="R3" t="n">
-        <v>55.75562170894892</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="S3" t="n">
-        <v>55.75562170894892</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="T3" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="U3" t="n">
-        <v>27.59621680543936</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="V3" t="n">
-        <v>27.59621680543936</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="W3" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="X3" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.19481488593376</v>
+        <v>55.75562170894898</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="C4" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="D4" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="E4" t="n">
-        <v>29.27451733768853</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="F4" t="n">
-        <v>29.27451733768853</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="G4" t="n">
-        <v>15.19481488593376</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="H4" t="n">
-        <v>15.19481488593376</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="I4" t="n">
-        <v>1.115112434178978</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="J4" t="n">
-        <v>1.115112434178978</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="K4" t="n">
-        <v>14.91462880714383</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="L4" t="n">
-        <v>28.71414518010869</v>
+        <v>14.91462880714385</v>
       </c>
       <c r="M4" t="n">
-        <v>41.95610533598406</v>
+        <v>28.71414518010872</v>
       </c>
       <c r="N4" t="n">
-        <v>41.95610533598406</v>
+        <v>42.5136615530736</v>
       </c>
       <c r="O4" t="n">
-        <v>55.75562170894892</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="P4" t="n">
-        <v>55.75562170894892</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.75562170894892</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="R4" t="n">
-        <v>55.75562170894892</v>
+        <v>29.27451733768856</v>
       </c>
       <c r="S4" t="n">
-        <v>55.75562170894892</v>
+        <v>29.27451733768856</v>
       </c>
       <c r="T4" t="n">
-        <v>41.67591925719414</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="U4" t="n">
-        <v>41.67591925719414</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="V4" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="W4" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="X4" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593377</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="C5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="D5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="E5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="F5" t="n">
-        <v>80.18350343923302</v>
+        <v>39.27355270493226</v>
       </c>
       <c r="G5" t="n">
-        <v>44.15001883245933</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="H5" t="n">
-        <v>44.15001883245933</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="I5" t="n">
-        <v>3.240068098156763</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="J5" t="n">
-        <v>3.240068098156763</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="K5" t="n">
-        <v>3.240068098156763</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="L5" t="n">
-        <v>41.71587676376834</v>
+        <v>17.18977071997543</v>
       </c>
       <c r="M5" t="n">
-        <v>81.81171947845829</v>
+        <v>57.2856134346672</v>
       </c>
       <c r="N5" t="n">
-        <v>121.9075621931482</v>
+        <v>97.38145614935898</v>
       </c>
       <c r="O5" t="n">
-        <v>162.0034049078382</v>
+        <v>121.9075621931538</v>
       </c>
       <c r="P5" t="n">
-        <v>162.0034049078382</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="Q5" t="n">
-        <v>162.0034049078382</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="R5" t="n">
-        <v>121.0934541735356</v>
+        <v>121.0934541735411</v>
       </c>
       <c r="S5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="T5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="U5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="V5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="W5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="X5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="Y5" t="n">
-        <v>121.0934541735356</v>
+        <v>80.18350343923669</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="C6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="D6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="E6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="F6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="G6" t="n">
-        <v>39.27355270493045</v>
+        <v>44.15001883246134</v>
       </c>
       <c r="H6" t="n">
-        <v>39.27355270493045</v>
+        <v>44.15001883246134</v>
       </c>
       <c r="I6" t="n">
-        <v>3.240068098156763</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="J6" t="n">
-        <v>3.240068098156763</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="K6" t="n">
-        <v>3.240068098156763</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="L6" t="n">
-        <v>40.04861657251303</v>
+        <v>40.04861657251438</v>
       </c>
       <c r="M6" t="n">
-        <v>80.14445928720298</v>
+        <v>61.43906306379233</v>
       </c>
       <c r="N6" t="n">
-        <v>101.5349057784796</v>
+        <v>101.5349057784841</v>
       </c>
       <c r="O6" t="n">
-        <v>141.6307484931695</v>
+        <v>141.6307484931759</v>
       </c>
       <c r="P6" t="n">
-        <v>162.0034049078382</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.0034049078382</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="R6" t="n">
-        <v>121.0934541735356</v>
+        <v>121.0934541735411</v>
       </c>
       <c r="S6" t="n">
-        <v>80.18350343923302</v>
+        <v>121.0934541735411</v>
       </c>
       <c r="T6" t="n">
-        <v>39.27355270493045</v>
+        <v>121.0934541735411</v>
       </c>
       <c r="U6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="V6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="W6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="X6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.27355270493045</v>
+        <v>85.05996956676577</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.45372113161837</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="C7" t="n">
-        <v>91.45372113161837</v>
+        <v>121.0934541735411</v>
       </c>
       <c r="D7" t="n">
-        <v>50.5437703973158</v>
+        <v>121.0934541735411</v>
       </c>
       <c r="E7" t="n">
-        <v>50.5437703973158</v>
+        <v>80.18350343923669</v>
       </c>
       <c r="F7" t="n">
-        <v>44.15001883245933</v>
+        <v>39.27355270493226</v>
       </c>
       <c r="G7" t="n">
-        <v>44.15001883245933</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="H7" t="n">
-        <v>44.15001883245933</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="I7" t="n">
-        <v>44.15001883245933</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="J7" t="n">
-        <v>3.240068098156763</v>
+        <v>3.240068098156911</v>
       </c>
       <c r="K7" t="n">
-        <v>43.33591081284671</v>
+        <v>43.33591081284868</v>
       </c>
       <c r="L7" t="n">
-        <v>43.33591081284671</v>
+        <v>43.33591081284868</v>
       </c>
       <c r="M7" t="n">
-        <v>81.81171947845826</v>
+        <v>81.81171947846201</v>
       </c>
       <c r="N7" t="n">
-        <v>121.9075621931482</v>
+        <v>81.81171947846201</v>
       </c>
       <c r="O7" t="n">
-        <v>162.0034049078382</v>
+        <v>121.9075621931538</v>
       </c>
       <c r="P7" t="n">
-        <v>162.0034049078382</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="Q7" t="n">
-        <v>132.3636718659209</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="R7" t="n">
-        <v>132.3636718659209</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="S7" t="n">
-        <v>132.3636718659209</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="T7" t="n">
-        <v>132.3636718659209</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="U7" t="n">
-        <v>132.3636718659209</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="V7" t="n">
-        <v>91.45372113161837</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="W7" t="n">
-        <v>91.45372113161837</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="X7" t="n">
-        <v>91.45372113161837</v>
+        <v>162.0034049078455</v>
       </c>
       <c r="Y7" t="n">
-        <v>91.45372113161837</v>
+        <v>162.0034049078455</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.9545330148394</v>
+        <v>411.2275767947228</v>
       </c>
       <c r="C8" t="n">
-        <v>118.9545330148394</v>
+        <v>265.0910549047811</v>
       </c>
       <c r="D8" t="n">
         <v>118.9545330148394</v>
@@ -4793,10 +4793,10 @@
         <v>112.009032265636</v>
       </c>
       <c r="G8" t="n">
-        <v>98.62198880311651</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H8" t="n">
-        <v>98.62198880311651</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I8" t="n">
         <v>11.57401253368338</v>
@@ -4832,22 +4832,22 @@
         <v>557.3640986846646</v>
       </c>
       <c r="T8" t="n">
-        <v>411.2275767947228</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="U8" t="n">
-        <v>411.2275767947228</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="V8" t="n">
-        <v>411.2275767947228</v>
+        <v>557.3640986846646</v>
       </c>
       <c r="W8" t="n">
         <v>411.2275767947228</v>
       </c>
       <c r="X8" t="n">
-        <v>265.0910549047811</v>
+        <v>411.2275767947228</v>
       </c>
       <c r="Y8" t="n">
-        <v>265.0910549047811</v>
+        <v>411.2275767947228</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>303.8470563135668</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="C9" t="n">
-        <v>303.8470563135668</v>
+        <v>449.9835782035085</v>
       </c>
       <c r="D9" t="n">
         <v>303.8470563135668</v>
@@ -4884,10 +4884,10 @@
         <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>50.41925783498755</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L9" t="n">
-        <v>148.9740250987618</v>
+        <v>109.297302116636</v>
       </c>
       <c r="M9" t="n">
         <v>243.6629351576685</v>
@@ -4905,28 +4905,28 @@
         <v>578.700626684169</v>
       </c>
       <c r="R9" t="n">
-        <v>578.700626684169</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="S9" t="n">
-        <v>578.700626684169</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="T9" t="n">
-        <v>578.700626684169</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="U9" t="n">
-        <v>578.700626684169</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="V9" t="n">
-        <v>432.5641047942273</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="W9" t="n">
-        <v>432.5641047942273</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="X9" t="n">
-        <v>432.5641047942273</v>
+        <v>546.3050792910236</v>
       </c>
       <c r="Y9" t="n">
-        <v>303.8470563135668</v>
+        <v>546.3050792910236</v>
       </c>
     </row>
     <row r="10">
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.7105344236251</v>
+        <v>461.5872889736106</v>
       </c>
       <c r="C10" t="n">
-        <v>157.7105344236251</v>
+        <v>461.5872889736106</v>
       </c>
       <c r="D10" t="n">
-        <v>157.7105344236251</v>
+        <v>461.5872889736106</v>
       </c>
       <c r="E10" t="n">
-        <v>11.57401253368338</v>
+        <v>315.4507670836689</v>
       </c>
       <c r="F10" t="n">
-        <v>11.57401253368338</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="G10" t="n">
-        <v>11.57401253368338</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="H10" t="n">
-        <v>11.57401253368338</v>
+        <v>169.3142451937272</v>
       </c>
       <c r="I10" t="n">
-        <v>11.57401253368338</v>
+        <v>40.22061895147928</v>
       </c>
       <c r="J10" t="n">
         <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>95.2724709803248</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>171.9848569716117</v>
+        <v>149.0154113711735</v>
       </c>
       <c r="M10" t="n">
-        <v>315.2132620759435</v>
+        <v>292.2438164755054</v>
       </c>
       <c r="N10" t="n">
-        <v>328.0854715982697</v>
+        <v>435.4722215798372</v>
       </c>
       <c r="O10" t="n">
-        <v>471.3138767026015</v>
+        <v>578.700626684169</v>
       </c>
       <c r="P10" t="n">
         <v>578.700626684169</v>
@@ -4996,16 +4996,16 @@
         <v>569.430082082835</v>
       </c>
       <c r="V10" t="n">
-        <v>449.9835782035085</v>
+        <v>569.430082082835</v>
       </c>
       <c r="W10" t="n">
-        <v>449.9835782035085</v>
+        <v>569.430082082835</v>
       </c>
       <c r="X10" t="n">
-        <v>303.8470563135668</v>
+        <v>569.430082082835</v>
       </c>
       <c r="Y10" t="n">
-        <v>303.8470563135668</v>
+        <v>569.430082082835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.097597267229</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W11" t="n">
-        <v>2866.097597267229</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X11" t="n">
-        <v>2866.097597267229</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="Y11" t="n">
-        <v>2475.958265291417</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>380.4321398396066</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C13" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5203,10 +5203,10 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1845.973366846992</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.59460854119</v>
+        <v>1556.870499972636</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.910120335303</v>
+        <v>1302.186011766749</v>
       </c>
       <c r="W13" t="n">
-        <v>782.4929502983431</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X13" t="n">
-        <v>782.4929502983431</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.700371154813</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1789.769051130498</v>
+        <v>1821.063408868521</v>
       </c>
       <c r="C14" t="n">
-        <v>1527.507011484398</v>
+        <v>1452.10089192811</v>
       </c>
       <c r="D14" t="n">
-        <v>1169.241312877648</v>
+        <v>1093.835193321359</v>
       </c>
       <c r="E14" t="n">
-        <v>783.4530602794041</v>
+        <v>708.0469407231152</v>
       </c>
       <c r="F14" t="n">
-        <v>783.4530602794041</v>
+        <v>297.0610359335077</v>
       </c>
       <c r="G14" t="n">
-        <v>368.7127392273495</v>
+        <v>74.53055601169289</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169289</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169289</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773522</v>
+        <v>291.0377674773513</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055996</v>
+        <v>666.2644720055978</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.6681406457</v>
+        <v>1168.668140645697</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275287</v>
+        <v>1759.358462275284</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235393</v>
+        <v>2364.220579235388</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163076</v>
+        <v>2922.039463163072</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140406</v>
+        <v>3363.6239741404</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049516</v>
+        <v>3647.062805049509</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584652</v>
+        <v>3726.527800584645</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045197</v>
+        <v>3726.527800584645</v>
       </c>
       <c r="T14" t="n">
-        <v>3623.805524045197</v>
+        <v>3522.003948117026</v>
       </c>
       <c r="U14" t="n">
-        <v>3623.805524045197</v>
+        <v>3268.500041719098</v>
       </c>
       <c r="V14" t="n">
-        <v>3292.742636701626</v>
+        <v>2937.437154375527</v>
       </c>
       <c r="W14" t="n">
-        <v>2939.973981431512</v>
+        <v>2584.668499105413</v>
       </c>
       <c r="X14" t="n">
-        <v>2566.508223170432</v>
+        <v>2211.202740844333</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.36889119462</v>
+        <v>1821.063408868521</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>458.9250988334825</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3905408603674</v>
+        <v>312.3905408603675</v>
       </c>
       <c r="G15" t="n">
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718614</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169289</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807619</v>
+        <v>83.59666915367626</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628291</v>
+        <v>349.9852472357427</v>
       </c>
       <c r="L15" t="n">
-        <v>855.5663578417098</v>
+        <v>754.5001060146226</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.972986475666</v>
+        <v>1245.906734648578</v>
       </c>
       <c r="N15" t="n">
-        <v>1865.794331259251</v>
+        <v>1764.728079432162</v>
       </c>
       <c r="O15" t="n">
-        <v>2318.194706560485</v>
+        <v>2217.128454733395</v>
       </c>
       <c r="P15" t="n">
-        <v>2381.012571295174</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615.8603032901328</v>
+        <v>242.0844109553437</v>
       </c>
       <c r="C16" t="n">
-        <v>446.9241203622258</v>
+        <v>242.0844109553437</v>
       </c>
       <c r="D16" t="n">
-        <v>388.9743584532542</v>
+        <v>242.0844109553437</v>
       </c>
       <c r="E16" t="n">
-        <v>388.9743584532542</v>
+        <v>242.0844109553437</v>
       </c>
       <c r="F16" t="n">
-        <v>242.0844109553439</v>
+        <v>242.0844109553437</v>
       </c>
       <c r="G16" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169289</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169289</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169305</v>
+        <v>74.53055601169289</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525473</v>
+        <v>129.9765865525469</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923175</v>
+        <v>350.9282837923167</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553111</v>
+        <v>689.1968198553097</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479733</v>
+        <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229308</v>
+        <v>1419.995637229306</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776859</v>
+        <v>1739.964067776856</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135874</v>
+        <v>1990.231654135871</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389596</v>
+        <v>2080.068878389593</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389596</v>
+        <v>1996.937179304783</v>
       </c>
       <c r="S16" t="n">
-        <v>1890.979338613559</v>
+        <v>1807.847639528747</v>
       </c>
       <c r="T16" t="n">
-        <v>1669.849281277323</v>
+        <v>1586.717582192511</v>
       </c>
       <c r="U16" t="n">
-        <v>1380.75454067651</v>
+        <v>1297.622841591698</v>
       </c>
       <c r="V16" t="n">
-        <v>1126.070052470624</v>
+        <v>1161.932175864092</v>
       </c>
       <c r="W16" t="n">
-        <v>836.652882433663</v>
+        <v>872.5150058271311</v>
       </c>
       <c r="X16" t="n">
-        <v>836.652882433663</v>
+        <v>644.5254549291136</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.8603032901328</v>
+        <v>423.7328757855835</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796676</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5525,7 +5525,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
@@ -5537,28 +5537,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L18" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M18" t="n">
-        <v>1087.697503179733</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O18" t="n">
         <v>1959.694692760353</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477721</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.174278704279</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443618</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902794</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
@@ -5686,7 +5686,7 @@
         <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P19" t="n">
         <v>2392.455631028689</v>
@@ -5695,16 +5695,16 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
         <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357084</v>
@@ -5713,7 +5713,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479668</v>
+        <v>725.178257479669</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162852</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,40 +5762,40 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V20" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835861</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334507</v>
       </c>
       <c r="L21" t="n">
-        <v>519.5985603334505</v>
+        <v>973.3971899277783</v>
       </c>
       <c r="M21" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760352</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>1959.694692760352</v>
       </c>
       <c r="P21" t="n">
         <v>2346.796248312508</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749444</v>
@@ -5905,16 +5905,16 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,22 +5923,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237501</v>
@@ -5950,7 +5950,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162839</v>
@@ -5987,22 +5987,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612703</v>
@@ -6017,22 +6017,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6081,7 +6081,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502094</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
@@ -6166,16 +6166,16 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237501</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162841</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,7 +6236,7 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233287</v>
@@ -6245,31 +6245,31 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755814</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382062</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="27">
@@ -6288,19 +6288,19 @@
         <v>618.1705534421001</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9330984366445</v>
+        <v>458.9330984366446</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3985404635295</v>
+        <v>312.3985404635296</v>
       </c>
       <c r="G27" t="n">
-        <v>176.4447347764803</v>
+        <v>176.4447347764804</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177185</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J27" t="n">
         <v>216.5575109835859</v>
@@ -6309,13 +6309,13 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N27" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502071</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477687</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609058</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897934</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511628</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.44446907304</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254978</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6464,16 +6464,16 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6491,7 +6491,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400161</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E31" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315377</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6640,19 +6640,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357083</v>
@@ -6664,7 +6664,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="32">
@@ -6689,61 +6689,61 @@
         <v>725.1782574796666</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050961</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6783,16 +6783,16 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502088</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D34" t="n">
         <v>617.6685920609037</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902791</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.58138725498</v>
@@ -6914,7 +6914,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
         <v>1458.093420216582</v>
@@ -6923,7 +6923,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
@@ -6935,25 +6935,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.907144767228</v>
@@ -6965,13 +6965,13 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
@@ -7023,13 +7023,13 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
         <v>386.7245456315385</v>
@@ -7093,13 +7093,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7129,13 +7129,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943806</v>
@@ -7163,61 +7163,61 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7260,13 +7260,13 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502127</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477745</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609075</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039832</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315416</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749475</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R40" t="n">
         <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073045</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254984</v>
       </c>
     </row>
     <row r="41">
@@ -7397,64 +7397,64 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
@@ -7500,13 +7500,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.315654538067</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O42" t="n">
-        <v>2028.720609486317</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2415.822165038473</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.04923335254</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237499</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076851</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951463</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
@@ -7667,31 +7667,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177182</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7731,10 +7731,10 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
         <v>1662.137679823382</v>
@@ -7780,73 +7780,73 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65.29236085646851</v>
+        <v>65.29236085646849</v>
       </c>
       <c r="K2" t="n">
-        <v>46.60529509404799</v>
+        <v>60.54420052128521</v>
       </c>
       <c r="L2" t="n">
-        <v>24.78845221140305</v>
+        <v>20.54348275905164</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.244969452351333</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.2467531491298</v>
+        <v>0.307847721892557</v>
       </c>
       <c r="P2" t="n">
         <v>49.05114215269009</v>
       </c>
       <c r="Q2" t="n">
-        <v>75.02716749247358</v>
+        <v>75.02716749247355</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>57.89560904784605</v>
+        <v>57.89560904784604</v>
       </c>
       <c r="K3" t="n">
-        <v>20.00854994078955</v>
+        <v>20.00854994078954</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.83435842388161</v>
+        <v>46.8343584238816</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>71.87583075794684</v>
+        <v>57.9369253307096</v>
       </c>
       <c r="L4" t="n">
-        <v>57.87034639841988</v>
+        <v>57.87034639841987</v>
       </c>
       <c r="M4" t="n">
-        <v>56.40406722691954</v>
+        <v>56.96725532498971</v>
       </c>
       <c r="N4" t="n">
-        <v>34.06833705578184</v>
+        <v>48.00724248301907</v>
       </c>
       <c r="O4" t="n">
-        <v>65.92480045234983</v>
+        <v>65.36161235427966</v>
       </c>
       <c r="P4" t="n">
-        <v>63.73743033232118</v>
+        <v>63.73743033232117</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.65782428202616</v>
+        <v>52.65782428202527</v>
       </c>
       <c r="K5" t="n">
-        <v>27.66939993469398</v>
+        <v>27.66939993469265</v>
       </c>
       <c r="L5" t="n">
-        <v>35.91628358507185</v>
+        <v>11.14243909639033</v>
       </c>
       <c r="M5" t="n">
-        <v>5.231113729948618</v>
+        <v>5.231113729948561</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.7270067382797</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.70559270918724</v>
+        <v>54.20644393614711</v>
       </c>
       <c r="Q5" t="n">
-        <v>58.95166933782258</v>
+        <v>58.95166933782144</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.37056561934884</v>
+        <v>50.37056561934831</v>
       </c>
       <c r="K6" t="n">
-        <v>7.147052150204985</v>
+        <v>7.147052150204075</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.66728800268561</v>
+        <v>36.6672880026849</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>90.67977193536171</v>
+        <v>90.67977193536301</v>
       </c>
       <c r="L7" t="n">
-        <v>34.00386604213601</v>
+        <v>34.00386604213531</v>
       </c>
       <c r="M7" t="n">
-        <v>71.42556728137691</v>
+        <v>71.42556728137797</v>
       </c>
       <c r="N7" t="n">
-        <v>64.350839941012</v>
+        <v>23.84998871405175</v>
       </c>
       <c r="O7" t="n">
-        <v>83.04844767087994</v>
+        <v>83.04844767088116</v>
       </c>
       <c r="P7" t="n">
-        <v>55.66133537964683</v>
+        <v>96.16218660660766</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
-        <v>75.68757118528572</v>
+        <v>137.0300084036728</v>
       </c>
       <c r="M10" t="n">
         <v>139.4864436873943</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>131.6729248303088</v>
       </c>
       <c r="O10" t="n">
         <v>153.1837627278771</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>3.581135388230905e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>211.673993539277</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>24.8685944288747</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.376431179883042</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>8.424183240961513</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>105.6334725213687</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>190.2877427189373</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389934</v>
+        <v>28.90056660389962</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429425</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>91.24520872833048</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526118</v>
+        <v>143.4436781526119</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434399</v>
+        <v>91.91693778434407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396091</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.8038842534981</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.529170629820295e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.335820343228988e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.359179683888215e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9.414691248821327e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-3.424815986363683e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-4.483524662646232e-12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.664535259100376e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909466.4217199575</v>
+        <v>909466.4217199564</v>
       </c>
     </row>
     <row r="7">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321419</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>359394.9721398942</v>
+        <v>359394.9721398937</v>
       </c>
       <c r="G2" t="n">
+        <v>410520.8849321421</v>
+      </c>
+      <c r="H2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="I2" t="n">
+        <v>410520.8849321419</v>
+      </c>
+      <c r="J2" t="n">
+        <v>410520.8849321417</v>
+      </c>
+      <c r="K2" t="n">
         <v>410520.884932142</v>
-      </c>
-      <c r="H2" t="n">
-        <v>410520.884932142</v>
-      </c>
-      <c r="I2" t="n">
-        <v>410520.884932142</v>
-      </c>
-      <c r="J2" t="n">
-        <v>410520.884932142</v>
-      </c>
-      <c r="K2" t="n">
-        <v>410520.8849321421</v>
       </c>
       <c r="L2" t="n">
         <v>410520.884932142</v>
@@ -26353,7 +26353,7 @@
         <v>410520.884932142</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.884932142</v>
+        <v>410520.8849321421</v>
       </c>
     </row>
     <row r="3">
@@ -26366,46 +26366,46 @@
         <v>331580.0723202187</v>
       </c>
       <c r="C3" t="n">
-        <v>42300.61343990208</v>
+        <v>42300.61343990501</v>
       </c>
       <c r="D3" t="n">
-        <v>146730.6152793145</v>
+        <v>146730.6152793117</v>
       </c>
       <c r="E3" t="n">
-        <v>670972.9537958341</v>
+        <v>670972.9537958342</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654398</v>
+        <v>93369.88484654189</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.081897533</v>
+        <v>143964.0818975351</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3647.030971604057</v>
+        <v>3647.030971604107</v>
       </c>
       <c r="K3" t="n">
-        <v>6836.194866582931</v>
+        <v>6836.194866583381</v>
       </c>
       <c r="L3" t="n">
-        <v>51653.74102091952</v>
+        <v>51653.74102091901</v>
       </c>
       <c r="M3" t="n">
-        <v>171134.9405490225</v>
+        <v>171134.9405490226</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613194</v>
+        <v>24549.15438613137</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875946</v>
+        <v>31434.59456875987</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347394.5612259591</v>
+        <v>347394.561225959</v>
       </c>
       <c r="C4" t="n">
-        <v>335008.1928388004</v>
+        <v>335008.1928387996</v>
       </c>
       <c r="D4" t="n">
         <v>289929.9471536342</v>
@@ -26430,7 +26430,7 @@
         <v>11652.10257562669</v>
       </c>
       <c r="G4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104693</v>
       </c>
       <c r="H4" t="n">
         <v>42789.59501104693</v>
@@ -26439,22 +26439,22 @@
         <v>42789.59501104693</v>
       </c>
       <c r="J4" t="n">
+        <v>42789.5950110469</v>
+      </c>
+      <c r="K4" t="n">
         <v>42789.59501104696</v>
       </c>
-      <c r="K4" t="n">
-        <v>42789.59501104693</v>
-      </c>
       <c r="L4" t="n">
-        <v>42789.59501104712</v>
+        <v>42789.59501104696</v>
       </c>
       <c r="M4" t="n">
-        <v>42789.59501104696</v>
+        <v>42789.59501104694</v>
       </c>
       <c r="N4" t="n">
-        <v>42789.59501104694</v>
+        <v>42789.59501104707</v>
       </c>
       <c r="O4" t="n">
-        <v>42789.59501104694</v>
+        <v>42789.59501104713</v>
       </c>
       <c r="P4" t="n">
         <v>42789.59501104694</v>
@@ -26470,28 +26470,28 @@
         <v>41870.80590462394</v>
       </c>
       <c r="C5" t="n">
-        <v>44293.01747894537</v>
+        <v>44293.01747894553</v>
       </c>
       <c r="D5" t="n">
         <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390709</v>
+        <v>82183.39720390695</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215533</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
@@ -26509,7 +26509,7 @@
         <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310324.5545186602</v>
+        <v>-310324.5545186598</v>
       </c>
       <c r="C6" t="n">
-        <v>-11080.93882550613</v>
+        <v>-11080.93882550839</v>
       </c>
       <c r="D6" t="n">
-        <v>-79677.80284959124</v>
+        <v>-79677.80284958868</v>
       </c>
       <c r="E6" t="n">
-        <v>-415882.4303834351</v>
+        <v>-416230.0493132413</v>
       </c>
       <c r="F6" t="n">
-        <v>172189.5875138165</v>
+        <v>171933.957949857</v>
       </c>
       <c r="G6" t="n">
-        <v>128660.7739214067</v>
+        <v>128660.7739214047</v>
       </c>
       <c r="H6" t="n">
         <v>272624.8558189399</v>
       </c>
       <c r="I6" t="n">
-        <v>272624.85581894</v>
+        <v>272624.8558189403</v>
       </c>
       <c r="J6" t="n">
-        <v>268977.8248473357</v>
+        <v>268977.8248473353</v>
       </c>
       <c r="K6" t="n">
-        <v>265788.660952357</v>
+        <v>265788.6609523564</v>
       </c>
       <c r="L6" t="n">
-        <v>220971.1147980201</v>
+        <v>220971.1147980207</v>
       </c>
       <c r="M6" t="n">
-        <v>101489.9152699173</v>
+        <v>101489.9152699171</v>
       </c>
       <c r="N6" t="n">
-        <v>248075.7014328078</v>
+        <v>248075.7014328082</v>
       </c>
       <c r="O6" t="n">
-        <v>241190.2612501803</v>
+        <v>241190.2612501798</v>
       </c>
       <c r="P6" t="n">
         <v>272624.8558189397</v>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221392</v>
@@ -26707,22 +26707,22 @@
         <v>31.61020235221392</v>
       </c>
       <c r="J2" t="n">
+        <v>31.61020235221375</v>
+      </c>
+      <c r="K2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="K2" t="n">
-        <v>31.61020235221392</v>
-      </c>
       <c r="L2" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221394</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.2532318645832</v>
+        <v>339.2532318645833</v>
       </c>
       <c r="C3" t="n">
-        <v>376.2828313920288</v>
+        <v>376.2828313920314</v>
       </c>
       <c r="D3" t="n">
         <v>509.8291662011503</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808274</v>
+        <v>1171.567643808273</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="C4" t="n">
-        <v>40.50085122695954</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="D4" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>931.631950146163</v>
+        <v>931.6319501461612</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26817,16 +26817,16 @@
         <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-1.669775429036235e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.918465386552271e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.243449787580175e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.2532318645832</v>
+        <v>339.2532318645833</v>
       </c>
       <c r="C3" t="n">
-        <v>37.02959952744555</v>
+        <v>37.02959952744811</v>
       </c>
       <c r="D3" t="n">
-        <v>133.5463348091216</v>
+        <v>133.546334809119</v>
       </c>
       <c r="E3" t="n">
         <v>579.9475343921479</v>
       </c>
       <c r="F3" t="n">
-        <v>81.7909432149761</v>
+        <v>81.79094321497428</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118486</v>
+        <v>106.5922268118507</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="C4" t="n">
-        <v>26.56194579972231</v>
+        <v>26.56194579972414</v>
       </c>
       <c r="D4" t="n">
-        <v>104.1743054440827</v>
+        <v>104.1743054440809</v>
       </c>
       <c r="E4" t="n">
-        <v>686.7262987312504</v>
+        <v>686.7262987312508</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438704</v>
+        <v>100.2304947438681</v>
       </c>
       <c r="G4" t="n">
-        <v>130.62316204279</v>
+        <v>130.623162042792</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723793</v>
       </c>
       <c r="K4" t="n">
-        <v>26.56194579972231</v>
+        <v>26.56194579972346</v>
       </c>
       <c r="L4" t="n">
-        <v>104.1743054440823</v>
+        <v>104.1743054440809</v>
       </c>
       <c r="M4" t="n">
         <v>686.7262987312508</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438704</v>
+        <v>100.2304947438677</v>
       </c>
       <c r="O4" t="n">
-        <v>130.62316204279</v>
+        <v>130.623162042792</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.918465386552271e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="K4" t="n">
-        <v>26.56194579972231</v>
+        <v>26.56194579972414</v>
       </c>
       <c r="L4" t="n">
-        <v>104.1743054440827</v>
+        <v>104.1743054440809</v>
       </c>
       <c r="M4" t="n">
-        <v>686.7262987312504</v>
+        <v>686.7262987312508</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438704</v>
+        <v>100.2304947438681</v>
       </c>
       <c r="O4" t="n">
-        <v>130.62316204279</v>
+        <v>130.623162042792</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>340.7441361934457</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>325.5074567455836</v>
       </c>
       <c r="I2" t="n">
-        <v>143.9578475744879</v>
+        <v>157.8967530017251</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>64.19830054973812</v>
+        <v>50.25939512250086</v>
       </c>
       <c r="S2" t="n">
         <v>177.9417458832737</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>355.7921952512318</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>132.7918244930733</v>
       </c>
       <c r="G3" t="n">
-        <v>136.613802664483</v>
+        <v>122.6748972372458</v>
       </c>
       <c r="H3" t="n">
-        <v>105.1879384198378</v>
+        <v>91.2490329926006</v>
       </c>
       <c r="I3" t="n">
-        <v>50.33378525307428</v>
+        <v>50.33378525307425</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>54.85152518778425</v>
+        <v>54.85152518778424</v>
       </c>
       <c r="S3" t="n">
         <v>158.1290443401915</v>
       </c>
       <c r="T3" t="n">
-        <v>183.2845617573622</v>
+        <v>197.2234671845994</v>
       </c>
       <c r="U3" t="n">
-        <v>211.9544691209266</v>
+        <v>225.8933745481638</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>239.4175952606091</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.4950572193319</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>153.440305808187</v>
+        <v>167.3792112354243</v>
       </c>
       <c r="H4" t="n">
         <v>156.7879977408238</v>
       </c>
       <c r="I4" t="n">
-        <v>123.1140335818564</v>
+        <v>137.0529390090937</v>
       </c>
       <c r="J4" t="n">
-        <v>50.10717381813404</v>
+        <v>50.10717381813403</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.93480524014232</v>
+        <v>20.99589981290507</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7860719541821</v>
+        <v>137.5086840538716</v>
       </c>
       <c r="S4" t="n">
         <v>213.3551481109984</v>
@@ -27594,7 +27594,7 @@
         <v>286.2856601861436</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8602554235175</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.3751945147519</v>
+        <v>366.37519451475</v>
       </c>
       <c r="G5" t="n">
-        <v>378.1168929548631</v>
+        <v>378.1168929548615</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9829164997124</v>
+        <v>323.9829164997123</v>
       </c>
       <c r="I5" t="n">
-        <v>111.6568720831803</v>
+        <v>152.1577233101394</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14.34645201095586</v>
+        <v>14.34645201095334</v>
       </c>
       <c r="S5" t="n">
-        <v>174.5495368411364</v>
+        <v>134.0486856141748</v>
       </c>
       <c r="T5" t="n">
         <v>216.4740280790314</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5341540919146</v>
+        <v>96.03330286495317</v>
       </c>
       <c r="H6" t="n">
-        <v>104.4187008900319</v>
+        <v>104.4187008900318</v>
       </c>
       <c r="I6" t="n">
-        <v>25.85725453950699</v>
+        <v>21.02955307325136</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.405475744687735</v>
+        <v>9.405475744685539</v>
       </c>
       <c r="S6" t="n">
-        <v>116.1487558113572</v>
+        <v>156.6496070383166</v>
       </c>
       <c r="T6" t="n">
-        <v>156.4015763164538</v>
+        <v>196.9024275434133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8881345104948</v>
+        <v>190.2149847497872</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>126.7459698716664</v>
       </c>
       <c r="D7" t="n">
-        <v>108.1146217912528</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>105.9331114196078</v>
       </c>
       <c r="F7" t="n">
-        <v>139.0912339737233</v>
+        <v>104.9201967959699</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3124365477518</v>
+        <v>131.6392867870442</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1943100631543</v>
+        <v>156.1943100631542</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0448420379988</v>
+        <v>135.0448420379986</v>
       </c>
       <c r="J7" t="n">
-        <v>4.885352172732787</v>
+        <v>45.38620339969199</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.34333571149765</v>
       </c>
       <c r="R7" t="n">
-        <v>146.783639179383</v>
+        <v>146.7836391793828</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1914474176523</v>
+        <v>212.1914474176522</v>
       </c>
       <c r="T7" t="n">
         <v>225.0463610552609</v>
@@ -27831,7 +27831,7 @@
         <v>286.2820179304524</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6367920968685</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>238.0586849924383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.5977350999653</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>210.0078849496407</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>313.8225034932613</v>
       </c>
       <c r="H8" t="n">
         <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>45.28255816931598</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>69.44872435019248</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
         <v>251.1816877488572</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>204.5658120463708</v>
       </c>
       <c r="X8" t="n">
-        <v>225.0559440074268</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>77.35021291167578</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>2.769908893596494</v>
       </c>
       <c r="E9" t="n">
         <v>12.96992378435868</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.07159191921401</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.3140530013673</v>
@@ -27989,7 +27989,7 @@
         <v>225.8692364442482</v>
       </c>
       <c r="V9" t="n">
-        <v>88.12543047838301</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>78.25281778145043</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.15682351089504</v>
+        <v>73.06761500380512</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>1.758805975526911</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0.7458913518889858</v>
       </c>
       <c r="G10" t="n">
         <v>167.07161528826</v>
@@ -28029,10 +28029,10 @@
         <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8026899798254</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361794</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
-        <v>133.8856044832947</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>81.03449871799489</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>31.61020235221392</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605488</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.6102023522141</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221413</v>
       </c>
     </row>
     <row r="44">
@@ -31045,7 +31045,7 @@
         <v>13.96734537018356</v>
       </c>
       <c r="I2" t="n">
-        <v>52.57913656868079</v>
+        <v>52.5791365686808</v>
       </c>
       <c r="J2" t="n">
         <v>115.7535436702178</v>
@@ -31054,16 +31054,16 @@
         <v>173.4845559509326</v>
       </c>
       <c r="L2" t="n">
-        <v>215.2229322109355</v>
+        <v>215.2229322109356</v>
       </c>
       <c r="M2" t="n">
-        <v>239.4769811040884</v>
+        <v>239.4769811040885</v>
       </c>
       <c r="N2" t="n">
-        <v>243.3519690238281</v>
+        <v>243.3519690238282</v>
       </c>
       <c r="O2" t="n">
-        <v>229.7903636997941</v>
+        <v>229.7903636997942</v>
       </c>
       <c r="P2" t="n">
         <v>196.1207590298167</v>
@@ -31072,13 +31072,13 @@
         <v>147.2785223819759</v>
       </c>
       <c r="R2" t="n">
-        <v>85.67081739141156</v>
+        <v>85.67081739141157</v>
       </c>
       <c r="S2" t="n">
-        <v>31.07832370297162</v>
+        <v>31.07832370297163</v>
       </c>
       <c r="T2" t="n">
-        <v>5.970174964772714</v>
+        <v>5.970174964772715</v>
       </c>
       <c r="U2" t="n">
         <v>0.1091065670318257</v>
@@ -31118,28 +31118,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7297144987275941</v>
+        <v>0.7297144987275942</v>
       </c>
       <c r="H3" t="n">
-        <v>7.047505816658607</v>
+        <v>7.047505816658608</v>
       </c>
       <c r="I3" t="n">
-        <v>25.12394217110357</v>
+        <v>25.12394217110358</v>
       </c>
       <c r="J3" t="n">
-        <v>68.94201761882064</v>
+        <v>68.94201761882066</v>
       </c>
       <c r="K3" t="n">
-        <v>117.8328890335694</v>
+        <v>117.8328890335695</v>
       </c>
       <c r="L3" t="n">
-        <v>152.4932852071114</v>
+        <v>146.561040288275</v>
       </c>
       <c r="M3" t="n">
-        <v>150.1406944304191</v>
+        <v>156.0729393492556</v>
       </c>
       <c r="N3" t="n">
-        <v>145.2806175105705</v>
+        <v>145.2806175105706</v>
       </c>
       <c r="O3" t="n">
         <v>156.5351498716817</v>
@@ -31148,7 +31148,7 @@
         <v>139.3434642350965</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.14741566213991</v>
+        <v>93.14741566213992</v>
       </c>
       <c r="R3" t="n">
         <v>45.30630896485889</v>
@@ -31157,7 +31157,7 @@
         <v>13.55412676364631</v>
       </c>
       <c r="T3" t="n">
-        <v>2.941261510222187</v>
+        <v>2.941261510222188</v>
       </c>
       <c r="U3" t="n">
         <v>0.04800753281102595</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6117681230344942</v>
+        <v>0.6117681230344943</v>
       </c>
       <c r="H4" t="n">
-        <v>5.43917476661578</v>
+        <v>5.439174766615781</v>
       </c>
       <c r="I4" t="n">
-        <v>18.39753591816461</v>
+        <v>18.39753591816462</v>
       </c>
       <c r="J4" t="n">
-        <v>43.25200629853874</v>
+        <v>43.25200629853875</v>
       </c>
       <c r="K4" t="n">
-        <v>71.07633283982577</v>
+        <v>71.07633283982578</v>
       </c>
       <c r="L4" t="n">
-        <v>90.95323531005563</v>
+        <v>90.95323531005566</v>
       </c>
       <c r="M4" t="n">
-        <v>95.89743404985256</v>
+        <v>95.89743404985259</v>
       </c>
       <c r="N4" t="n">
-        <v>93.61720740945135</v>
+        <v>93.61720740945137</v>
       </c>
       <c r="O4" t="n">
-        <v>86.47064342673018</v>
+        <v>86.47064342673019</v>
       </c>
       <c r="P4" t="n">
-        <v>73.99057371682643</v>
+        <v>73.99057371682645</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.22723801155206</v>
+        <v>51.22723801155207</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50731942298734</v>
+        <v>27.50731942298735</v>
       </c>
       <c r="S4" t="n">
-        <v>10.66144992597386</v>
+        <v>10.66144992597387</v>
       </c>
       <c r="T4" t="n">
-        <v>2.613918343874656</v>
+        <v>2.613918343874657</v>
       </c>
       <c r="U4" t="n">
         <v>0.03336917034733609</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.512694799565944</v>
+        <v>1.512694799565954</v>
       </c>
       <c r="H5" t="n">
-        <v>15.49188561605472</v>
+        <v>15.49188561605483</v>
       </c>
       <c r="I5" t="n">
-        <v>58.3181662602661</v>
+        <v>58.3181662602665</v>
       </c>
       <c r="J5" t="n">
-        <v>128.3880802446601</v>
+        <v>128.388080244661</v>
       </c>
       <c r="K5" t="n">
-        <v>192.4204511102866</v>
+        <v>192.4204511102879</v>
       </c>
       <c r="L5" t="n">
-        <v>238.7145845825029</v>
+        <v>238.7145845825045</v>
       </c>
       <c r="M5" t="n">
-        <v>265.6159707242837</v>
+        <v>265.6159707242855</v>
       </c>
       <c r="N5" t="n">
-        <v>269.9139148235504</v>
+        <v>269.9139148235523</v>
       </c>
       <c r="O5" t="n">
-        <v>254.8720559103666</v>
+        <v>254.8720559103683</v>
       </c>
       <c r="P5" t="n">
-        <v>217.5274030460823</v>
+        <v>217.5274030460838</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.3540205366269</v>
+        <v>163.354020536628</v>
       </c>
       <c r="R5" t="n">
-        <v>95.02181470323428</v>
+        <v>95.02181470323495</v>
       </c>
       <c r="S5" t="n">
-        <v>34.47053274510898</v>
+        <v>34.47053274510921</v>
       </c>
       <c r="T5" t="n">
-        <v>6.621821485099922</v>
+        <v>6.621821485099967</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1210155839652755</v>
+        <v>0.1210155839652763</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8093630712960619</v>
+        <v>0.8093630712960675</v>
       </c>
       <c r="H6" t="n">
-        <v>7.816743346464599</v>
+        <v>7.816743346464653</v>
       </c>
       <c r="I6" t="n">
-        <v>27.86622855120213</v>
+        <v>27.86622855120233</v>
       </c>
       <c r="J6" t="n">
-        <v>76.46706104731786</v>
+        <v>76.46706104731838</v>
       </c>
       <c r="K6" t="n">
-        <v>130.694386824154</v>
+        <v>130.6943868241549</v>
       </c>
       <c r="L6" t="n">
-        <v>175.7347317741734</v>
+        <v>175.7347317741747</v>
       </c>
       <c r="M6" t="n">
-        <v>182.6348851489778</v>
+        <v>163.7405455293698</v>
       </c>
       <c r="N6" t="n">
-        <v>152.9482236906834</v>
+        <v>171.8425633102947</v>
       </c>
       <c r="O6" t="n">
-        <v>183.097095671404</v>
+        <v>183.0970956714058</v>
       </c>
       <c r="P6" t="n">
-        <v>154.5528482372278</v>
+        <v>154.5528482372289</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.3144860833359</v>
+        <v>103.3144860833366</v>
       </c>
       <c r="R6" t="n">
-        <v>50.25150718099586</v>
+        <v>50.25150718099621</v>
       </c>
       <c r="S6" t="n">
-        <v>15.03356406552114</v>
+        <v>15.03356406552124</v>
       </c>
       <c r="T6" t="n">
-        <v>3.262301151408248</v>
+        <v>3.262301151408271</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05324757048000409</v>
+        <v>0.05324757048000446</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.678542810706937</v>
+        <v>0.6785428107069418</v>
       </c>
       <c r="H7" t="n">
-        <v>6.032862444285318</v>
+        <v>6.032862444285359</v>
       </c>
       <c r="I7" t="n">
-        <v>20.40563288925953</v>
+        <v>20.40563288925967</v>
       </c>
       <c r="J7" t="n">
-        <v>47.97297671698045</v>
+        <v>47.97297671698078</v>
       </c>
       <c r="K7" t="n">
-        <v>78.83433746213321</v>
+        <v>78.83433746213376</v>
       </c>
       <c r="L7" t="n">
-        <v>100.8808102391023</v>
+        <v>100.880810239103</v>
       </c>
       <c r="M7" t="n">
-        <v>106.3646698638156</v>
+        <v>106.3646698638163</v>
       </c>
       <c r="N7" t="n">
-        <v>103.8355557511807</v>
+        <v>103.8355557511814</v>
       </c>
       <c r="O7" t="n">
-        <v>95.90894200792238</v>
+        <v>95.90894200792303</v>
       </c>
       <c r="P7" t="n">
-        <v>82.06666866950079</v>
+        <v>82.06666866950135</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.81870754019634</v>
+        <v>56.81870754019673</v>
       </c>
       <c r="R7" t="n">
-        <v>30.50975219778645</v>
+        <v>30.50975219778666</v>
       </c>
       <c r="S7" t="n">
-        <v>11.82515061931998</v>
+        <v>11.82515061932006</v>
       </c>
       <c r="T7" t="n">
-        <v>2.899228373020548</v>
+        <v>2.899228373020569</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03701142603856025</v>
+        <v>0.0370114260385605</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,13 +31604,13 @@
         <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908279</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432826</v>
+        <v>237.2647732980082</v>
       </c>
       <c r="M9" t="n">
-        <v>237.7793976178837</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
         <v>276.0168687543755</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.7098196736011</v>
+        <v>4.709819673601092</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226727</v>
+        <v>48.2344407322672</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665066</v>
+        <v>181.5753229665063</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223017</v>
+        <v>399.7400575223011</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058363</v>
+        <v>599.1067243058354</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418061</v>
+        <v>743.244868141805</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622097</v>
+        <v>827.0031237622084</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098288</v>
+        <v>840.3848989098276</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304578</v>
+        <v>793.5516295304567</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384306</v>
+        <v>677.2779563384296</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775911</v>
+        <v>508.6075392775903</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718454</v>
+        <v>295.8532100718449</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121852</v>
+        <v>107.325015812185</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118882</v>
+        <v>20.61723562118879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880879</v>
+        <v>0.3767855738880873</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681949</v>
+        <v>2.519975686681945</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137567</v>
+        <v>24.33765992137563</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146185</v>
+        <v>86.7623207914617</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667363</v>
+        <v>135.9953167090741</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744268</v>
+        <v>406.9208107744262</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332889</v>
+        <v>547.1552472332882</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755095</v>
+        <v>638.5043658755085</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111969</v>
+        <v>655.4036765111958</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062968</v>
+        <v>599.5663205062958</v>
       </c>
       <c r="P15" t="n">
-        <v>197.4267960352282</v>
+        <v>481.2048309068356</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999625</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762301</v>
+        <v>46.80744312762294</v>
       </c>
       <c r="T15" t="n">
-        <v>10.1572704213189</v>
+        <v>10.15727042131889</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238125</v>
+        <v>0.1657878741238122</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244429</v>
+        <v>2.112662964244426</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482776</v>
+        <v>18.78349435482773</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291431</v>
+        <v>63.53353714291421</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720811</v>
+        <v>149.3652715720809</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913073</v>
+        <v>245.4530243913069</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023036</v>
+        <v>314.0953647023031</v>
       </c>
       <c r="M16" t="n">
-        <v>331.169522658788</v>
+        <v>331.1695226587875</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102409</v>
+        <v>323.2950516102404</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824763</v>
+        <v>298.6153069824758</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118898</v>
+        <v>255.5169825118894</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150494</v>
+        <v>176.9067142150492</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320858</v>
+        <v>94.99300928320842</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869608</v>
+        <v>36.81795365869603</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408012</v>
+        <v>9.026832665407998</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860599</v>
+        <v>0.1152361616860597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I17" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R17" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,34 +32306,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>554.7018671605758</v>
       </c>
       <c r="N18" t="n">
-        <v>500.6267975705753</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32388,7 +32388,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838147</v>
@@ -32397,13 +32397,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O19" t="n">
         <v>325.7840929246177</v>
@@ -32418,10 +32418,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171346</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879732</v>
       </c>
       <c r="I20" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.614989517164</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869755</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654302</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117595</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565681</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.898440582963</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972014</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581562</v>
       </c>
       <c r="S20" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T20" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031964</v>
       </c>
       <c r="H21" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781105</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155586</v>
       </c>
       <c r="M21" t="n">
-        <v>501.5641647828765</v>
+        <v>696.5971294879672</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>573.1387203886711</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.9860796892353</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486999</v>
       </c>
       <c r="T21" t="n">
-        <v>11.08140491603672</v>
+        <v>11.08140491603673</v>
       </c>
       <c r="U21" t="n">
         <v>0.1808716798047345</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216616</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092593</v>
       </c>
       <c r="I22" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051425</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838147</v>
@@ -32634,19 +32634,19 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754555</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696484</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246178</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381986</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636386</v>
@@ -32655,10 +32655,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227501</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925538</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32801,10 +32801,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>211.6584993001651</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33029,7 +33029,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155584</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
@@ -33038,7 +33038,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33503,7 +33503,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>154.478932257895</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,10 +33512,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33743,16 +33743,16 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>254.1392278303035</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33980,16 +33980,16 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>254.1392278303035</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34220,7 +34220,7 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578283</v>
@@ -34229,7 +34229,7 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>281.2161430610879</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,13 +34366,13 @@
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.109432438372</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K44" t="n">
         <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869759</v>
       </c>
       <c r="M44" t="n">
         <v>902.2459874654296</v>
@@ -34451,13 +34451,13 @@
         <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>154.478932257895</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="L2" t="n">
-        <v>4.244969452351352</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.13074787681569</v>
+        <v>13.37571732916705</v>
       </c>
       <c r="N2" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="O2" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.93890542723723</v>
+        <v>8.006660508400804</v>
       </c>
       <c r="M3" t="n">
-        <v>8.006660508400818</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="N3" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="O3" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="P3" t="n">
-        <v>5.369056820766218</v>
+        <v>5.369056820766247</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>13.93890542723723</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="M4" t="n">
-        <v>13.37571732916704</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="O4" t="n">
-        <v>13.93890542723723</v>
+        <v>13.37571732916705</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>38.86445319758746</v>
+        <v>14.09060870890759</v>
       </c>
       <c r="M5" t="n">
-        <v>40.50085122695954</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="N5" t="n">
-        <v>40.50085122695953</v>
+        <v>40.5008512269614</v>
       </c>
       <c r="O5" t="n">
-        <v>40.50085122695954</v>
+        <v>24.77384448868162</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>37.18035199429926</v>
+        <v>37.18035199430048</v>
       </c>
       <c r="M6" t="n">
-        <v>40.50085122695954</v>
+        <v>21.60651160735146</v>
       </c>
       <c r="N6" t="n">
-        <v>21.60651160735011</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="O6" t="n">
-        <v>40.50085122695954</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="P6" t="n">
-        <v>20.57844082289759</v>
+        <v>20.57844082289867</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>40.50085122695954</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>38.86445319758743</v>
+        <v>38.86445319758922</v>
       </c>
       <c r="N7" t="n">
-        <v>40.50085122695954</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>40.50085122695954</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>40.50085122696139</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646886</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340837</v>
+        <v>98.710393518134</v>
       </c>
       <c r="M9" t="n">
-        <v>95.64536369586534</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
         <v>144.6751566710423</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>84.54389742084992</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>77.48725857705747</v>
+        <v>138.8296957954446</v>
       </c>
       <c r="M10" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O10" t="n">
         <v>144.6751566710423</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4714646278459</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956154</v>
+        <v>218.6941529956148</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608558</v>
+        <v>379.0168732608549</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718189</v>
+        <v>507.4784531718178</v>
       </c>
       <c r="M14" t="n">
-        <v>596.656890534937</v>
+        <v>596.6568905349357</v>
       </c>
       <c r="N14" t="n">
-        <v>610.971835313238</v>
+        <v>610.9718353132366</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087711</v>
+        <v>563.4534181087699</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831611</v>
+        <v>446.04496058316</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031417</v>
+        <v>286.3018494031409</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771323</v>
+        <v>80.26767225771277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000696</v>
+        <v>9.15769004240744</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000678</v>
+        <v>269.0793718000672</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534148</v>
+        <v>408.600867453414</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534912</v>
+        <v>496.3703319534902</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278636</v>
+        <v>524.0619644278626</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618524</v>
+        <v>456.9700760618514</v>
       </c>
       <c r="P15" t="n">
-        <v>63.45238862089799</v>
+        <v>347.2304234925054</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139409</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540835</v>
+        <v>56.00609145540813</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654244</v>
+        <v>223.183532565424</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626198</v>
+        <v>341.6853899626193</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206286</v>
+        <v>370.7533996206281</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894694</v>
+        <v>367.427223989469</v>
       </c>
       <c r="O16" t="n">
-        <v>323.200434896516</v>
+        <v>323.2004348965155</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767832</v>
+        <v>252.7955417767828</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335503</v>
+        <v>90.74467096335478</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>412.5678332385575</v>
       </c>
       <c r="N18" t="n">
-        <v>369.285085487242</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q18" t="n">
         <v>210.9575171831112</v>
@@ -36045,7 +36045,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895099</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721834</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169883</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381575</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348814</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276934</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227519</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356844</v>
       </c>
       <c r="M21" t="n">
-        <v>359.4301308608582</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>441.7970083053378</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749051</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K22" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>69.06225485572071</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440275</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356842</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,7 +36686,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193556</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414975</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817347</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010905</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.979423190871</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553057</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>15.92455247802082</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,10 +37160,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>112.0051939082852</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>112.0051939082852</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O42" t="n">
         <v>511.5201565133839</v>
@@ -37877,7 +37877,7 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>141.2343689750664</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.49425388951</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116857</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
         <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169886</v>
       </c>
       <c r="M44" t="n">
         <v>671.8997542381569</v>
@@ -38099,13 +38099,13 @@
         <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>15.92455247802082</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
